--- a/InputFiles/2 Bulk MO process/2-data.xlsx
+++ b/InputFiles/2 Bulk MO process/2-data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="12435" windowHeight="11310"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+      <selection sqref="A1:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
